--- a/Test.xlsx
+++ b/Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB0BB1D-93F1-4089-A153-7AFAC3D8E9CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8157A1-FFFC-4709-89FB-838F5ABBE3F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23340" yWindow="2130" windowWidth="21600" windowHeight="11190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5865" yWindow="3780" windowWidth="21600" windowHeight="11190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,17 +25,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="1">
+  <si>
+    <t>Setosa</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -56,14 +67,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{AE18F1C4-EA5D-4D4F-93B7-479FCA61B2C5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -341,15 +355,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1">
         <v>1</v>
       </c>
@@ -362,8 +376,11 @@
       <c r="D1">
         <v>321</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>2</v>
       </c>
@@ -376,8 +393,11 @@
       <c r="D2">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>3</v>
       </c>
@@ -390,8 +410,11 @@
       <c r="D3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>4</v>
       </c>
@@ -404,8 +427,11 @@
       <c r="D4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>5</v>
       </c>
@@ -418,8 +444,11 @@
       <c r="D5">
         <v>213</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>2</v>
       </c>
@@ -432,8 +461,11 @@
       <c r="D6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>3</v>
       </c>
@@ -443,8 +475,11 @@
       <c r="D7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>4</v>
       </c>
@@ -457,8 +492,11 @@
       <c r="D8">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>5</v>
       </c>
@@ -471,8 +509,11 @@
       <c r="D9">
         <v>354</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>6</v>
       </c>
@@ -485,8 +526,11 @@
       <c r="D10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>7</v>
       </c>
@@ -499,8 +543,11 @@
       <c r="D11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>3</v>
       </c>
@@ -513,8 +560,11 @@
       <c r="D12">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>867</v>
       </c>
@@ -527,8 +577,11 @@
       <c r="D13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>68</v>
       </c>
@@ -541,8 +594,11 @@
       <c r="D14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>7</v>
       </c>
@@ -555,8 +611,11 @@
       <c r="D15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>4</v>
       </c>
@@ -569,8 +628,11 @@
       <c r="D16">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>21</v>
       </c>
@@ -583,8 +645,11 @@
       <c r="D17">
         <v>123</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>2</v>
       </c>
@@ -596,6 +661,9 @@
       </c>
       <c r="D18">
         <v>34</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
